--- a/Financials/Quarterly/VRTS_QTR_FIN.xlsx
+++ b/Financials/Quarterly/VRTS_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A0798E-3BD7-480E-8832-CF5BD8F001BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VRTS" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>VRTS</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,95 +689,108 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F7" s="2">
         <v>43281</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43008</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>138100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>152200</v>
+      </c>
+      <c r="F8" s="3">
         <v>132900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>129000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>128000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>123700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>94100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>79800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>79900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>82300</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -770,8 +818,14 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +853,14 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +872,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,8 +903,14 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,45 +938,57 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>1600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>8900</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>6100</v>
+        <v>8800</v>
       </c>
       <c r="E15" s="3">
-        <v>6100</v>
+        <v>8700</v>
       </c>
       <c r="F15" s="3">
         <v>6100</v>
@@ -917,19 +997,25 @@
         <v>6100</v>
       </c>
       <c r="H15" s="3">
+        <v>6100</v>
+      </c>
+      <c r="I15" s="3">
+        <v>6100</v>
+      </c>
+      <c r="J15" s="3">
         <v>2600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>1300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +1024,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>108800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>118300</v>
+      </c>
+      <c r="F17" s="3">
         <v>105600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>106400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>100000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>106900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>90900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>69700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>67100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>65800</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>29300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>33900</v>
+      </c>
+      <c r="F18" s="3">
         <v>27300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>22600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>28000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>16800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>3200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>10100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>12800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>16500</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,153 +1109,185 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F20" s="3">
         <v>9900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>11600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>6100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>17500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>2500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>8400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>49200</v>
+      </c>
+      <c r="F21" s="3">
         <v>44000</v>
-      </c>
-      <c r="E21" s="3">
-        <v>41000</v>
-      </c>
-      <c r="F21" s="3">
-        <v>40800</v>
       </c>
       <c r="G21" s="3">
         <v>41000</v>
       </c>
       <c r="H21" s="3">
+        <v>40800</v>
+      </c>
+      <c r="I21" s="3">
+        <v>41000</v>
+      </c>
+      <c r="J21" s="3">
         <v>9600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>19400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>14100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>24700</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F22" s="3">
         <v>4500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>3900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>3900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>4100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>3700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>34600</v>
+      </c>
+      <c r="F23" s="3">
         <v>32700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>30400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>30200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>30100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>1900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>18200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>12400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>23100</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F24" s="3">
         <v>9500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>6500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>11500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>9600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>1900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>4400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1315,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>27900</v>
+      </c>
+      <c r="F26" s="3">
         <v>23200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>23800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>18700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>20500</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>13700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>11900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>16300</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>24900</v>
+      </c>
+      <c r="F27" s="3">
         <v>21000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>21200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>16500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>16700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-2400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>10900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>12400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,26 +1420,32 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3">
+        <v>0</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3">
         <v>-13100</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1299,8 +1455,14 @@
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1490,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1525,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="F32" s="3">
         <v>-9900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-11600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-6100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-17500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-2500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-8400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-6800</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>24900</v>
+      </c>
+      <c r="F33" s="3">
         <v>21000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>21200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>3400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>16700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>10900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>12400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1630,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>24900</v>
+      </c>
+      <c r="F35" s="3">
         <v>21000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>21200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>3400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>16700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>10900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>12400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F38" s="2">
         <v>43281</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43008</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1724,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,55 +1739,63 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>201700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>169000</v>
+      </c>
+      <c r="F41" s="3">
         <v>138800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>80800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>132200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>165600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>128400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>238900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>69200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>167500</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>79600</v>
+      </c>
+      <c r="E42" s="3">
+        <v>85100</v>
+      </c>
+      <c r="F42" s="3">
         <v>87200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>125300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>108500</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>5</v>
       </c>
@@ -1591,37 +1805,49 @@
       <c r="K42" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>70000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>79800</v>
+      </c>
+      <c r="F43" s="3">
         <v>67800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>62600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>65600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>61800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>59400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>37800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>35900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>36900</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,66 +1875,84 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>51200</v>
+      </c>
+      <c r="F45" s="3">
         <v>41700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>55700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>102100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>221200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>51500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>53700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>21400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>404300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>385100</v>
+      </c>
+      <c r="F46" s="3">
         <v>335500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>324500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>408400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>448500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>239300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>330400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>119600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>219600</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1721,81 +1965,99 @@
       <c r="F47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="3">
         <v>96800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>93400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>199000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>231400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>232300</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1769700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1803400</v>
+      </c>
+      <c r="F48" s="3">
         <v>1786500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1645500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1608600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1607300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1366700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>361300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>496800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>368100</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>629200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>636700</v>
+      </c>
+      <c r="F49" s="3">
         <v>462000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>467100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>472100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>477200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>483300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>45000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>45200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +2085,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,37 +2120,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>67400</v>
+      </c>
+      <c r="E52" s="3">
+        <v>59100</v>
+      </c>
+      <c r="F52" s="3">
         <v>105800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>101200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>101700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>111800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>109000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>77800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>73500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>63700</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2190,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2870500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2884300</v>
+      </c>
+      <c r="F54" s="3">
         <v>2689900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2538200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2590800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2741600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2291600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1013400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>824400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>929600</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2244,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,37 +2259,45 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>32800</v>
+      </c>
+      <c r="F57" s="3">
         <v>25800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>28200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>29600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>31700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>29200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>30400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>25200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2023,124 +2325,154 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>101100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>78300</v>
+      </c>
+      <c r="F59" s="3">
         <v>51900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>34000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>93200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>127800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>109800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>22500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>51400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>41900</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>129000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>111100</v>
+      </c>
+      <c r="F60" s="3">
         <v>77700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>62200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>122800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>159500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>139000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>52900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>76500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>63400</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1929200</v>
+        <v>1949400</v>
       </c>
       <c r="E61" s="3">
-        <v>1798000</v>
+        <v>1947600</v>
       </c>
       <c r="F61" s="3">
-        <v>1818700</v>
+        <v>1814800</v>
       </c>
       <c r="G61" s="3">
-        <v>1895800</v>
+        <v>1705600</v>
       </c>
       <c r="H61" s="3">
-        <v>1487600</v>
+        <v>1705800</v>
       </c>
       <c r="I61" s="3">
+        <v>1704500</v>
+      </c>
+      <c r="J61" s="3">
+        <v>1344500</v>
+      </c>
+      <c r="K61" s="3">
         <v>346600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>375400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>349600</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>39200</v>
+        <v>90700</v>
       </c>
       <c r="E62" s="3">
-        <v>48500</v>
+        <v>106100</v>
       </c>
       <c r="F62" s="3">
-        <v>39900</v>
+        <v>153600</v>
       </c>
       <c r="G62" s="3">
-        <v>18400</v>
+        <v>140900</v>
       </c>
       <c r="H62" s="3">
-        <v>18300</v>
+        <v>152800</v>
       </c>
       <c r="I62" s="3">
-        <v>16500</v>
+        <v>209700</v>
       </c>
       <c r="J62" s="3">
-        <v>17600</v>
+        <v>161300</v>
       </c>
       <c r="K62" s="3">
         <v>16500</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>17600</v>
+      </c>
+      <c r="M62" s="3">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2500,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2535,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2570,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2240600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2240600</v>
+      </c>
+      <c r="F66" s="3">
         <v>2065500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1929400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2002200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2157400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1718000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>461000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>502700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>459800</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2624,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2655,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2690,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2350,13 +2720,19 @@
         <v>110800</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>110800</v>
       </c>
       <c r="K70" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+        <v>110800</v>
+      </c>
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2760,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-310900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-313000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-340000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-363100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-386200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-391700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-410500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-410200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-424300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-436700</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2830,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2865,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2900,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>519100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>532900</v>
+      </c>
+      <c r="F76" s="3">
         <v>513600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>497900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>477700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>473300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>462800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>441600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>321700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>469800</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2970,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F80" s="2">
         <v>43281</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43008</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>24900</v>
+      </c>
+      <c r="F81" s="3">
         <v>21000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>21200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>3400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>16700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>10900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>12400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +3064,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E83" s="3">
+        <v>9500</v>
+      </c>
+      <c r="F83" s="3">
         <v>6800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>6800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>6700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>6700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>3900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>1000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>1400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +3130,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +3165,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +3200,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +3235,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3270,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>39100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>52800</v>
+      </c>
+      <c r="F89" s="3">
         <v>-92800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-61800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-78900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-158400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>69800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-15200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>31700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-53100</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3324,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-1300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
-        <v>100</v>
-      </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3390,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3425,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-127200</v>
+      </c>
+      <c r="F94" s="3">
         <v>36900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-21600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-27600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-394300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>5200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,37 +3479,45 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3300</v>
+        <v>-3900</v>
       </c>
       <c r="E96" s="3">
         <v>-3400</v>
       </c>
       <c r="F96" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="G96" s="3">
-        <v>-3300</v>
+        <v>-3400</v>
       </c>
       <c r="H96" s="3">
         <v>-3200</v>
       </c>
       <c r="I96" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-2700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3545,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3580,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,37 +3615,49 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>114100</v>
+      </c>
+      <c r="F100" s="3">
         <v>99900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-14500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-46100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>365700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>251700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>179200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-126700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-13200</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,33 +3685,45 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>39600</v>
+      </c>
+      <c r="F102" s="3">
         <v>44000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-97800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-152600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>207000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-72800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>169200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-96600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-68400</v>
       </c>
     </row>

--- a/Financials/Quarterly/VRTS_QTR_FIN.xlsx
+++ b/Financials/Quarterly/VRTS_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A0798E-3BD7-480E-8832-CF5BD8F001BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="VRTS" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>VRTS</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,108 +654,129 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43373</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43008</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>42825</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>146000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>140500</v>
+      </c>
+      <c r="F8" s="3">
+        <v>130700</v>
+      </c>
+      <c r="G8" s="3">
         <v>138100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="H8" s="3">
         <v>152200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="I8" s="3">
         <v>132900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="J8" s="3">
         <v>129000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="K8" s="3">
         <v>128000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>123700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>94100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>79800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="3">
         <v>79900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="P8" s="3">
         <v>82300</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -824,8 +810,17 @@
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -859,8 +854,17 @@
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -874,8 +878,11 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,8 +916,17 @@
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -944,43 +960,61 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>500</v>
+      </c>
+      <c r="E14" s="3">
+        <v>300</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="L14" s="3">
         <v>1600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="M14" s="3">
         <v>8900</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -988,34 +1022,43 @@
         <v>8800</v>
       </c>
       <c r="E15" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F15" s="3">
+        <v>8800</v>
+      </c>
+      <c r="G15" s="3">
+        <v>8800</v>
+      </c>
+      <c r="H15" s="3">
         <v>8700</v>
-      </c>
-      <c r="F15" s="3">
-        <v>6100</v>
-      </c>
-      <c r="G15" s="3">
-        <v>6100</v>
-      </c>
-      <c r="H15" s="3">
-        <v>6100</v>
       </c>
       <c r="I15" s="3">
         <v>6100</v>
       </c>
       <c r="J15" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K15" s="3">
+        <v>6100</v>
+      </c>
+      <c r="L15" s="3">
+        <v>6100</v>
+      </c>
+      <c r="M15" s="3">
         <v>2600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="N15" s="3">
         <v>900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="O15" s="3">
         <v>1300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="P15" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1026,78 +1069,99 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>110200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>110400</v>
+      </c>
+      <c r="F17" s="3">
+        <v>109700</v>
+      </c>
+      <c r="G17" s="3">
         <v>108800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="H17" s="3">
         <v>118300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="I17" s="3">
         <v>105600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="J17" s="3">
         <v>106400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="K17" s="3">
         <v>100000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>106900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>90900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>69700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>67100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>65800</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>35800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>30100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>21000</v>
+      </c>
+      <c r="G18" s="3">
         <v>29300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="H18" s="3">
         <v>33900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="I18" s="3">
         <v>27300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="J18" s="3">
         <v>22600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="K18" s="3">
         <v>28000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>16800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>3200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>10100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>12800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>16500</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,183 +1175,231 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>11700</v>
+      </c>
+      <c r="F20" s="3">
+        <v>10900</v>
+      </c>
+      <c r="G20" s="3">
         <v>-11900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="H20" s="3">
         <v>5800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="I20" s="3">
         <v>9900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="J20" s="3">
         <v>11600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="K20" s="3">
         <v>6100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>17500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>2500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>8400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="P20" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>51000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>51800</v>
+      </c>
+      <c r="F21" s="3">
+        <v>41700</v>
+      </c>
+      <c r="G21" s="3">
         <v>27700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="H21" s="3">
         <v>49200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="I21" s="3">
         <v>44000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="J21" s="3">
         <v>41000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="K21" s="3">
         <v>40800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>41000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>9600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="N21" s="3">
         <v>19400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="O21" s="3">
         <v>14100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>24700</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>6000</v>
+        <v>4900</v>
       </c>
       <c r="E22" s="3">
         <v>5200</v>
       </c>
       <c r="F22" s="3">
+        <v>5200</v>
+      </c>
+      <c r="G22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="H22" s="3">
+        <v>5200</v>
+      </c>
+      <c r="I22" s="3">
         <v>4500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="J22" s="3">
         <v>3900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="K22" s="3">
         <v>3900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="L22" s="3">
         <v>4100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="M22" s="3">
         <v>3700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="O22" s="3">
         <v>300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="P22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>36200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>36700</v>
+      </c>
+      <c r="F23" s="3">
+        <v>26700</v>
+      </c>
+      <c r="G23" s="3">
         <v>11400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="H23" s="3">
         <v>34600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="I23" s="3">
         <v>32700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="J23" s="3">
         <v>30400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="K23" s="3">
         <v>30200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>30100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>1900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>18200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>12400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>23100</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E24" s="3">
+        <v>8800</v>
+      </c>
+      <c r="F24" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G24" s="3">
         <v>10300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="H24" s="3">
         <v>6700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="I24" s="3">
         <v>9500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="J24" s="3">
         <v>6500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="K24" s="3">
         <v>11500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="L24" s="3">
         <v>9600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="M24" s="3">
         <v>1900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="N24" s="3">
         <v>4400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="O24" s="3">
         <v>500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="P24" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1321,78 +1433,105 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1100</v>
+        <v>25400</v>
       </c>
       <c r="E26" s="3">
         <v>27900</v>
       </c>
       <c r="F26" s="3">
+        <v>22500</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H26" s="3">
+        <v>27900</v>
+      </c>
+      <c r="I26" s="3">
         <v>23200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="J26" s="3">
         <v>23800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="K26" s="3">
         <v>18700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>20500</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>13700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>11900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>16300</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>24800</v>
+      </c>
+      <c r="F27" s="3">
+        <v>19700</v>
+      </c>
+      <c r="G27" s="3">
         <v>100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="H27" s="3">
         <v>24900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="I27" s="3">
         <v>21000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="J27" s="3">
         <v>21200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="K27" s="3">
         <v>16500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>16700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>-2400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>10900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>12400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1426,13 +1565,22 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>5</v>
@@ -1440,29 +1588,38 @@
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3">
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3">
         <v>-13100</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1496,8 +1653,17 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1531,78 +1697,105 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="G32" s="3">
         <v>11900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="H32" s="3">
         <v>-5800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="I32" s="3">
         <v>-9900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="J32" s="3">
         <v>-11600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="K32" s="3">
         <v>-6100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>-17500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <v>-2500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
         <v>-8400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="P32" s="3">
         <v>-6800</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>24800</v>
+      </c>
+      <c r="F33" s="3">
+        <v>19700</v>
+      </c>
+      <c r="G33" s="3">
         <v>100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="H33" s="3">
         <v>24900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="I33" s="3">
         <v>21000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="J33" s="3">
         <v>21200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="K33" s="3">
         <v>3400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>16700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>-2400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>10900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>12400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1636,83 +1829,110 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>24800</v>
+      </c>
+      <c r="F35" s="3">
+        <v>19700</v>
+      </c>
+      <c r="G35" s="3">
         <v>100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="H35" s="3">
         <v>24900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="I35" s="3">
         <v>21000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="J35" s="3">
         <v>21200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="K35" s="3">
         <v>3400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>16700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>-2400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>10900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>12400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43373</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43008</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>42825</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1726,8 +1946,11 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1741,113 +1964,143 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>195900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>166000</v>
+      </c>
+      <c r="F41" s="3">
+        <v>142300</v>
+      </c>
+      <c r="G41" s="3">
         <v>201700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="H41" s="3">
         <v>169000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="I41" s="3">
         <v>138800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="J41" s="3">
         <v>80800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="K41" s="3">
         <v>132200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>165600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>128400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="N41" s="3">
         <v>238900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="O41" s="3">
         <v>69200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="P41" s="3">
         <v>167500</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>44600</v>
+      </c>
+      <c r="E42" s="3">
+        <v>73400</v>
+      </c>
+      <c r="F42" s="3">
+        <v>75900</v>
+      </c>
+      <c r="G42" s="3">
         <v>79600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="H42" s="3">
         <v>85100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="I42" s="3">
         <v>87200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="J42" s="3">
         <v>125300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="K42" s="3">
         <v>108500</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>74200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>71500</v>
+      </c>
+      <c r="F43" s="3">
+        <v>74200</v>
+      </c>
+      <c r="G43" s="3">
         <v>70000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="H43" s="3">
         <v>79800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="I43" s="3">
         <v>67800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="J43" s="3">
         <v>62600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="K43" s="3">
         <v>65600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="L43" s="3">
         <v>61800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="M43" s="3">
         <v>59400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="N43" s="3">
         <v>37800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="O43" s="3">
         <v>35900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="P43" s="3">
         <v>36900</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1881,183 +2134,237 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>83200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>85300</v>
+      </c>
+      <c r="F45" s="3">
+        <v>55700</v>
+      </c>
+      <c r="G45" s="3">
         <v>53000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="H45" s="3">
         <v>51200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="I45" s="3">
         <v>41700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="J45" s="3">
         <v>55700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="K45" s="3">
         <v>102100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="L45" s="3">
         <v>221200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="M45" s="3">
         <v>51500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="N45" s="3">
         <v>53700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="O45" s="3">
         <v>21400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="P45" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>397800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>396200</v>
+      </c>
+      <c r="F46" s="3">
+        <v>348100</v>
+      </c>
+      <c r="G46" s="3">
         <v>404300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="H46" s="3">
         <v>385100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="I46" s="3">
         <v>335500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="J46" s="3">
         <v>324500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="K46" s="3">
         <v>408400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>448500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3">
         <v>239300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="N46" s="3">
         <v>330400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="O46" s="3">
         <v>119600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="P46" s="3">
         <v>219600</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>5</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
       </c>
       <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" s="3">
         <v>96800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="M47" s="3">
         <v>93400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="N47" s="3">
         <v>199000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="O47" s="3">
         <v>231400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="P47" s="3">
         <v>232300</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2056000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2002200</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1807700</v>
+      </c>
+      <c r="G48" s="3">
         <v>1769700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="H48" s="3">
         <v>1803400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="I48" s="3">
         <v>1786500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="J48" s="3">
         <v>1645500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="K48" s="3">
         <v>1608600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>1607300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="M48" s="3">
         <v>1366700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="N48" s="3">
         <v>361300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="O48" s="3">
         <v>496800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="P48" s="3">
         <v>368100</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>608300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>615800</v>
+      </c>
+      <c r="F49" s="3">
+        <v>621600</v>
+      </c>
+      <c r="G49" s="3">
         <v>629200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="H49" s="3">
         <v>636700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="I49" s="3">
         <v>462000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="J49" s="3">
         <v>467100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="K49" s="3">
         <v>472100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="L49" s="3">
         <v>477200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="M49" s="3">
         <v>483300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="N49" s="3">
         <v>45000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="O49" s="3">
         <v>45200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="P49" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,8 +2398,17 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2126,43 +2442,61 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>51000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>52600</v>
+      </c>
+      <c r="F52" s="3">
+        <v>67800</v>
+      </c>
+      <c r="G52" s="3">
         <v>67400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="H52" s="3">
         <v>59100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="I52" s="3">
         <v>105800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="J52" s="3">
         <v>101200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="K52" s="3">
         <v>101700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="L52" s="3">
         <v>111800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="M52" s="3">
         <v>109000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="N52" s="3">
         <v>77800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="O52" s="3">
         <v>73500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="P52" s="3">
         <v>63700</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2196,43 +2530,61 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3113100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3066700</v>
+      </c>
+      <c r="F54" s="3">
+        <v>2845300</v>
+      </c>
+      <c r="G54" s="3">
         <v>2870500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="H54" s="3">
         <v>2884300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
         <v>2689900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>2538200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="K54" s="3">
         <v>2590800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>2741600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>2291600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>1013400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>824400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>929600</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2246,8 +2598,11 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2261,43 +2616,55 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>24800</v>
+      </c>
+      <c r="F57" s="3">
+        <v>27700</v>
+      </c>
+      <c r="G57" s="3">
         <v>27900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="H57" s="3">
         <v>32800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="I57" s="3">
         <v>25800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="J57" s="3">
         <v>28200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="K57" s="3">
         <v>29600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>31700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
         <v>29200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="N57" s="3">
         <v>30400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="O57" s="3">
         <v>25200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="P57" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2331,148 +2698,193 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>86800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>60300</v>
+      </c>
+      <c r="F59" s="3">
+        <v>38600</v>
+      </c>
+      <c r="G59" s="3">
         <v>101100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="H59" s="3">
         <v>78300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="I59" s="3">
         <v>51900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="J59" s="3">
         <v>34000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="K59" s="3">
         <v>93200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>127800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>109800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>22500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>51400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>41900</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>110100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>85100</v>
+      </c>
+      <c r="F60" s="3">
+        <v>66300</v>
+      </c>
+      <c r="G60" s="3">
         <v>129000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>111100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>77700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>62200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>122800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>159500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>139000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>52900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>76500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>63400</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2113200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2137200</v>
+      </c>
+      <c r="F61" s="3">
+        <v>1958000</v>
+      </c>
+      <c r="G61" s="3">
         <v>1949400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="H61" s="3">
         <v>1947600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="I61" s="3">
         <v>1814800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="J61" s="3">
         <v>1705600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="K61" s="3">
         <v>1705800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="L61" s="3">
         <v>1704500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="M61" s="3">
         <v>1344500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="N61" s="3">
         <v>346600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="O61" s="3">
         <v>375400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="P61" s="3">
         <v>349600</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>120500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>120200</v>
+      </c>
+      <c r="F62" s="3">
+        <v>115500</v>
+      </c>
+      <c r="G62" s="3">
         <v>90700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="H62" s="3">
         <v>106100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="I62" s="3">
         <v>153600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="J62" s="3">
         <v>140900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="K62" s="3">
         <v>152800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="L62" s="3">
         <v>209700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="M62" s="3">
         <v>161300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="N62" s="3">
         <v>16500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="O62" s="3">
         <v>17600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="P62" s="3">
         <v>16500</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2506,8 +2918,17 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2541,8 +2962,17 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2576,43 +3006,61 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2447400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2415700</v>
+      </c>
+      <c r="F66" s="3">
+        <v>2211800</v>
+      </c>
+      <c r="G66" s="3">
         <v>2240600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>2240600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>2065500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>1929400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>2002200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>2157400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>1718000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>461000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>502700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>459800</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2626,8 +3074,11 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2661,8 +3112,17 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2696,8 +3156,17 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2726,13 +3195,22 @@
         <v>110800</v>
       </c>
       <c r="L70" s="3">
-        <v>0</v>
+        <v>110800</v>
       </c>
       <c r="M70" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
+        <v>110800</v>
+      </c>
+      <c r="N70" s="3">
+        <v>110800</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2766,43 +3244,61 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-238100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-262200</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-289100</v>
+      </c>
+      <c r="G72" s="3">
         <v>-310900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-313000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-340000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-363100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-386200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-391700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-410500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-410200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>-424300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>-436700</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2836,8 +3332,17 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2871,8 +3376,17 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2906,43 +3420,61 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>554900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>540200</v>
+      </c>
+      <c r="F76" s="3">
+        <v>522700</v>
+      </c>
+      <c r="G76" s="3">
         <v>519100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>532900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>513600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>497900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>477700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>473300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>462800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>441600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>321700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>469800</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2976,83 +3508,110 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43373</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43008</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>42825</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>24800</v>
+      </c>
+      <c r="F81" s="3">
+        <v>19700</v>
+      </c>
+      <c r="G81" s="3">
         <v>100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="H81" s="3">
         <v>24900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="I81" s="3">
         <v>21000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="J81" s="3">
         <v>21200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="K81" s="3">
         <v>3400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>16700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>-2400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>10900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>12400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3066,43 +3625,55 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>9900</v>
+      </c>
+      <c r="F83" s="3">
+        <v>9900</v>
+      </c>
+      <c r="G83" s="3">
         <v>10300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="H83" s="3">
         <v>9500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="I83" s="3">
         <v>6800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="J83" s="3">
         <v>6800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="K83" s="3">
         <v>6700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="L83" s="3">
         <v>6700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="M83" s="3">
         <v>3900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="N83" s="3">
         <v>1000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="O83" s="3">
         <v>1400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="P83" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3136,8 +3707,17 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3171,8 +3751,17 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3206,8 +3795,17 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3241,8 +3839,17 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3276,43 +3883,61 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>40700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-120500</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="G89" s="3">
         <v>39100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="H89" s="3">
         <v>52800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="I89" s="3">
         <v>-92800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="J89" s="3">
         <v>-61800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="K89" s="3">
         <v>-78900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="L89" s="3">
         <v>-158400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>69800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="N89" s="3">
         <v>-15200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="O89" s="3">
         <v>31700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="P89" s="3">
         <v>-53100</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3326,43 +3951,55 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="G91" s="3">
         <v>-9200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="I91" s="3">
         <v>-1000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="J91" s="3">
         <v>-1300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="K91" s="3">
         <v>-300</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-600</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-700</v>
       </c>
       <c r="L91" s="3">
         <v>-600</v>
       </c>
       <c r="M91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3396,8 +4033,17 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3431,43 +4077,61 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="G94" s="3">
         <v>-9300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="H94" s="3">
         <v>-127200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="I94" s="3">
         <v>36900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="J94" s="3">
         <v>-21600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="K94" s="3">
         <v>-27600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="M94" s="3">
         <v>-394300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="N94" s="3">
         <v>5200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="O94" s="3">
         <v>-1500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="P94" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3481,8 +4145,11 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3490,34 +4157,43 @@
         <v>-3900</v>
       </c>
       <c r="E96" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="H96" s="3">
         <v>-3400</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-3200</v>
       </c>
       <c r="I96" s="3">
         <v>-3300</v>
       </c>
       <c r="J96" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-3200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="M96" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="N96" s="3">
         <v>-2900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="O96" s="3">
         <v>-2700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="P96" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3551,8 +4227,17 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3586,8 +4271,17 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3621,43 +4315,61 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>177200</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="G100" s="3">
         <v>4700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="H100" s="3">
         <v>114100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="I100" s="3">
         <v>99900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="J100" s="3">
         <v>-14500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="K100" s="3">
         <v>-46100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="L100" s="3">
         <v>365700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="M100" s="3">
         <v>251700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="N100" s="3">
         <v>179200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="O100" s="3">
         <v>-126700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="P100" s="3">
         <v>-13200</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3691,39 +4403,57 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>53200</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-56600</v>
+      </c>
+      <c r="G102" s="3">
         <v>34500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="H102" s="3">
         <v>39600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="I102" s="3">
         <v>44000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="J102" s="3">
         <v>-97800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="K102" s="3">
         <v>-152600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="L102" s="3">
         <v>207000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="M102" s="3">
         <v>-72800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="N102" s="3">
         <v>169200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="O102" s="3">
         <v>-96600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="P102" s="3">
         <v>-68400</v>
       </c>
     </row>
